--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/Renewable Production.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/Renewable Production.xlsx
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0002259720638519498</v>
+        <v>3.135549363108372e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>8.157127580584635e-06</v>
+        <v>1.045390559046002e-10</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -616,22 +616,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0004798343366818767</v>
+        <v>6.393787952267495e-09</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0009711099445481816</v>
+        <v>1.493965723957377e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001050537220488174</v>
+        <v>1.217968138227097e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001054459558007579</v>
+        <v>1.054234260858101e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0004097746888212885</v>
+        <v>5.061529909231016e-09</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0006227365496925958</v>
+        <v>8.894779140792344e-09</v>
       </c>
     </row>
     <row r="3">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000291820927782599</v>
+        <v>3.138015710282789e-09</v>
       </c>
       <c r="C3" t="n">
-        <v>8.15626053255048e-06</v>
+        <v>6.270761668656455e-11</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -695,22 +695,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0004795347220993715</v>
+        <v>5.323962237598774e-09</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001120439700172942</v>
+        <v>1.369432401764806e-08</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001050436740523965</v>
+        <v>1.065752329452536e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0008788593187668729</v>
+        <v>1.171595497373006e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0004402052408859513</v>
+        <v>4.553818053509717e-09</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.000622852305019763</v>
+        <v>5.930470532629925e-09</v>
       </c>
     </row>
     <row r="4">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0002917148757658599</v>
+        <v>3.450250448300216e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>9.41188491119397e-06</v>
+        <v>8.369277080963268e-11</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0005274065137172397</v>
+        <v>6.395352522685524e-09</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001307150330863634</v>
+        <v>1.244957584812682e-08</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001507249389483379</v>
+        <v>1.37026345640308e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001054378343067417</v>
+        <v>1.171608493717758e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0004857255984320103</v>
+        <v>5.055959364102377e-09</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0007338987670963748</v>
+        <v>8.892934065858881e-09</v>
       </c>
     </row>
     <row r="5">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002353209111946019</v>
+        <v>3.451440710128126e-09</v>
       </c>
       <c r="C5" t="n">
-        <v>7.215756095499644e-06</v>
+        <v>1.255216962803964e-10</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0003997339965245639</v>
+        <v>5.863844475344961e-09</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0009710381529051239</v>
+        <v>1.742991357640729e-08</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001187539269271948</v>
+        <v>1.522510260810756e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>0.000773082910266934</v>
+        <v>1.28879803121169e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0003339805195804443</v>
+        <v>4.554750492612973e-09</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0005782944344258974</v>
+        <v>6.673444206978764e-09</v>
       </c>
     </row>
     <row r="6">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002823238004442667</v>
+        <v>1.882614783286471e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>9.095680056726634e-06</v>
+        <v>8.36341123273938e-11</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -932,22 +932,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0003993486092469212</v>
+        <v>3.195670063002182e-09</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001157853972779801</v>
+        <v>9.960078496716715e-09</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00123322528737414</v>
+        <v>1.065733949142397e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0009489887255167002</v>
+        <v>8.199372901485748e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0004250561741597739</v>
+        <v>3.542722356778716e-09</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0005560401581242525</v>
+        <v>5.188627434895078e-09</v>
       </c>
     </row>
     <row r="7">
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003200749842461569</v>
+        <v>2.509785299290483e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>8.157343147860401e-06</v>
+        <v>8.365744843604376e-11</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1011,22 +1011,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0004477500526301775</v>
+        <v>3.729060629543338e-09</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001195222475122536</v>
+        <v>1.120525465912678e-08</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001370277694746023</v>
+        <v>1.065815306911768e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001019210721512131</v>
+        <v>8.198339916731876e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>0.000470636076557658</v>
+        <v>4.049570631850605e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0005560112959570027</v>
+        <v>3.705659786834643e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002447187938247073</v>
+        <v>3.13885855367622e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>7.842156661229428e-06</v>
+        <v>9.409755823443319e-11</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1090,22 +1090,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0003994770018259915</v>
+        <v>4.262529118447003e-09</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001157876557435556</v>
+        <v>1.120353350126258e-08</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001278908993129546</v>
+        <v>1.52255496132626e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0009841798382319463</v>
+        <v>1.054646142037005e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0003642586179608609</v>
+        <v>3.540512697383927e-09</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0005339543016650284</v>
+        <v>5.929552674359044e-09</v>
       </c>
     </row>
     <row r="9">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000254138007047033</v>
+        <v>3.766175670060321e-09</v>
       </c>
       <c r="C9" t="n">
-        <v>8.469279614762467e-06</v>
+        <v>8.364859881126723e-11</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1169,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0004317628699738923</v>
+        <v>6.394478064178404e-09</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0008590758579049878</v>
+        <v>1.12040440578296e-08</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00132463796436597</v>
+        <v>1.674727404960565e-08</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0008083602297550638</v>
+        <v>1.171588585574576e-08</v>
       </c>
       <c r="X9" t="n">
-        <v>0.0003491766516384438</v>
+        <v>4.554509612124273e-09</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0005560334531457798</v>
+        <v>7.413654412811804e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002446872915936495</v>
+        <v>3.137057993903831e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>8.468025736874404e-06</v>
+        <v>8.364026808132996e-11</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0004316079268826342</v>
+        <v>6.929459923733712e-09</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00108310170170458</v>
+        <v>1.369552598310398e-08</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001278845304965842</v>
+        <v>1.522521227653314e-08</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001089475643383619</v>
+        <v>1.288721955677445e-08</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0004249945212511182</v>
+        <v>5.565884375851249e-09</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0005562527935194503</v>
+        <v>7.414283890210797e-09</v>
       </c>
     </row>
   </sheetData>
